--- a/starbucks_menu/starbucks_beverage_nutrition.xlsx
+++ b/starbucks_menu/starbucks_beverage_nutrition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DD191D-1604-41C2-8E86-9A280315A8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83E05B-5A50-46BF-A48F-9B1CE0581F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFBAFEB-74ED-4915-A060-F86CC1CF0F58}">
   <dimension ref="A1:U1265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
